--- a/test/files/image-png.xlsx
+++ b/test/files/image-png.xlsx
@@ -560,6 +560,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/test/files/image-png.xlsx
+++ b/test/files/image-png.xlsx
@@ -560,5 +560,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>